--- a/Оборудование/Наши кабели.xlsx
+++ b/Оборудование/Наши кабели.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Синий</t>
   </si>
   <si>
-    <t>Крокус-098 - БЭК</t>
-  </si>
-  <si>
-    <t>17.11.2026</t>
-  </si>
-  <si>
     <t>BNC</t>
   </si>
   <si>
@@ -76,18 +70,6 @@
   </si>
   <si>
     <t>Ревиз, внутр. БЭК</t>
-  </si>
-  <si>
-    <t>Крокус-098</t>
-  </si>
-  <si>
-    <t>Крокус-173, НГ</t>
-  </si>
-  <si>
-    <t>Крокус-098, ВЧН</t>
-  </si>
-  <si>
-    <t>18.11.2027</t>
   </si>
   <si>
     <t>Осциллограф, 1:10</t>
@@ -100,7 +82,32 @@
 м</t>
   </si>
   <si>
-    <t>Раб. Част., ГГц</t>
+    <t>Крокус-98</t>
+  </si>
+  <si>
+    <t>Крокус-98, ВЧН</t>
+  </si>
+  <si>
+    <t>Крокус-98 - БЭК</t>
+  </si>
+  <si>
+    <t>Крокус-174, НГ</t>
+  </si>
+  <si>
+    <t>Раб. Част.,
+ &gt;-6дБ, ГГц</t>
+  </si>
+  <si>
+    <t>Черный - C</t>
+  </si>
+  <si>
+    <t>Черный - К</t>
+  </si>
+  <si>
+    <t>18.11.2025</t>
+  </si>
+  <si>
+    <t>LMR-400</t>
   </si>
 </sst>
 </file>
@@ -460,19 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -488,10 +495,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -540,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,17 +558,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>7</v>
@@ -575,15 +584,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -603,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -626,10 +639,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -649,10 +662,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -672,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -718,10 +731,10 @@
         <v>6.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,10 +742,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -741,10 +754,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,10 +788,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -788,7 +801,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -796,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -808,10 +821,10 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,10 +832,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -831,10 +844,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -854,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,10 +878,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -877,10 +890,10 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,6 +995,15 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Оборудование/Наши кабели.xlsx
+++ b/Оборудование/Наши кабели.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Даты замеров</t>
-  </si>
-  <si>
-    <t>Синиий</t>
   </si>
   <si>
     <t>АС-БЭК</t>
@@ -82,13 +79,7 @@
 м</t>
   </si>
   <si>
-    <t>Крокус-98</t>
-  </si>
-  <si>
     <t>Крокус-98, ВЧН</t>
-  </si>
-  <si>
-    <t>Крокус-98 - БЭК</t>
   </si>
   <si>
     <t>Крокус-174, НГ</t>
@@ -108,6 +99,21 @@
   </si>
   <si>
     <t>LMR-400</t>
+  </si>
+  <si>
+    <t>Крокус-98, внешний</t>
+  </si>
+  <si>
+    <t>Крокус-98. БЭК</t>
+  </si>
+  <si>
+    <t>Крокус-174, default</t>
+  </si>
+  <si>
+    <t>Крокус-98,КЦП+УП</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +486,7 @@
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -515,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -524,10 +530,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -547,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -558,22 +564,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -584,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -593,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -616,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -639,10 +645,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -662,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -685,10 +691,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -708,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -731,10 +737,10 @@
         <v>6.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -742,10 +748,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -754,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -777,10 +783,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,10 +794,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -801,7 +807,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,10 +815,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -821,10 +827,10 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -832,10 +838,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -844,10 +850,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,10 +861,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -867,10 +873,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -878,10 +884,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -890,20 +896,30 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>

--- a/Оборудование/Наши кабели.xlsx
+++ b/Оборудование/Наши кабели.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>N</t>
   </si>
@@ -113,7 +113,22 @@
     <t>Крокус-98,КЦП+УП</t>
   </si>
   <si>
-    <t>-</t>
+    <t>ЛПА-2</t>
+  </si>
+  <si>
+    <t>АИ5-0, Ант</t>
+  </si>
+  <si>
+    <t>АИ5-0, АС</t>
+  </si>
+  <si>
+    <t>НЧ</t>
+  </si>
+  <si>
+    <t>Кассандра</t>
+  </si>
+  <si>
+    <t>Медный</t>
   </si>
 </sst>
 </file>
@@ -173,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +207,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +826,9 @@
       <c r="E14" s="2">
         <v>1.5</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
@@ -912,68 +935,156 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="7">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="7">
+        <v>45988</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="7">
+        <v>45988</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7">
+        <v>45988</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="7">
+        <v>45989</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7">
+        <v>45989</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7">
+        <v>45989</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -1020,6 +1131,78 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Оборудование/Наши кабели.xlsx
+++ b/Оборудование/Наши кабели.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>N</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Медный</t>
+  </si>
+  <si>
+    <t>АИ3-3, Ант</t>
+  </si>
+  <si>
+    <t>АИ3-3, АС</t>
+  </si>
+  <si>
+    <t>АИ5-3, Ант</t>
+  </si>
+  <si>
+    <t>АИ5-3, АС</t>
   </si>
 </sst>
 </file>
@@ -491,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,40 +1099,96 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="7">
+        <v>45993</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="7">
+        <v>45993</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="7">
+        <v>45993</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="7">
+        <v>45993</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -1203,6 +1271,87 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
